--- a/docs/design/EQ/品牌/品牌、精品专区设计_JinGang_v1.2.xlsx
+++ b/docs/design/EQ/品牌/品牌、精品专区设计_JinGang_v1.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\docs\design\EQ\品牌\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="678"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="678" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="优选品牌表" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="197">
   <si>
     <t>表名：brand 优选品牌表</t>
   </si>
@@ -616,14 +621,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,345 +646,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1008,251 +683,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,398 +708,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形标注 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1838325" y="3143250"/>
-          <a:ext cx="4524375" cy="2066925"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -58687"/>
-            <a:gd name="adj2" fmla="val -75284"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>设计考虑采用纵表结构，承诺的条目通过横向数据记录的方式体现。</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>realness</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：保证房源真实(0未承诺，1已承诺)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>alwaysAnswer</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：保证接听(0未承诺，1已承诺)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>quickLook</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：保证快速带看(0未承诺，1已承诺)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fastFix</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：保证高效维修(0未承诺，1已承诺)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>这些需要记入枚举类， 英文名作为枚举的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1680,7 +755,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1722,6 +797,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1744,7 +820,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>分</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1767,7 +842,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形标注 2"/>
         <xdr:cNvSpPr/>
@@ -1927,8 +1002,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1938,11 +1013,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2095,7 +1170,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>分钟运行一次，持续地记录租客的行为。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2108,8 +1182,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2123,7 +1197,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2276,7 +1350,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>分钟运行一次，持续地识别租客的兴趣。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2575,32 +1648,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="58.75" customWidth="1"/>
+    <col min="8" max="8" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2652,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2674,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2696,7 +1768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +1788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2736,7 +1808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -2756,7 +1828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -2776,7 +1848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2796,7 +1868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -2816,7 +1888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2836,7 +1908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2856,7 +1928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -2878,7 +1950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:8">
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -2900,7 +1972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -2920,7 +1992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +2012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2960,7 +2032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -2980,7 +2052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -3000,7 +2072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -3021,22 +2093,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -3048,12 +2119,12 @@
     <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3079,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3105,7 +2176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -3127,7 +2198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -3149,7 +2220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -3169,7 +2240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -3189,7 +2260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3209,7 +2280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
@@ -3229,7 +2300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -3249,7 +2320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -3271,7 +2342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
@@ -3291,7 +2362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -3311,7 +2382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3331,7 +2402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -3351,7 +2422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -3371,7 +2442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -3391,7 +2462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -3412,39 +2483,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3458,19 +2525,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3484,19 +2542,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>80</v>
       </c>
@@ -3509,16 +2558,11 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>82</v>
       </c>
@@ -3531,14 +2575,11 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -3551,14 +2592,11 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
@@ -3571,14 +2609,11 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>88</v>
       </c>
@@ -3591,14 +2626,11 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -3611,14 +2643,11 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -3631,14 +2660,11 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -3651,14 +2677,11 @@
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
@@ -3671,14 +2694,11 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -3691,16 +2711,11 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3713,14 +2728,11 @@
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -3733,14 +2745,11 @@
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:8">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3753,14 +2762,11 @@
       <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3773,14 +2779,11 @@
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:8">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -3793,14 +2796,11 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:8">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -3813,47 +2813,40 @@
       <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3867,19 +2860,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3893,19 +2877,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>80</v>
       </c>
@@ -3918,16 +2893,11 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -3940,14 +2910,11 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>104</v>
       </c>
@@ -3960,14 +2927,11 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -3980,16 +2944,11 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -4002,14 +2961,11 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -4022,14 +2978,11 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -4042,14 +2995,11 @@
       <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -4062,14 +3012,11 @@
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -4082,14 +3029,11 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -4102,31 +3046,26 @@
       <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -4138,12 +3077,12 @@
     <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4169,7 +3108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -4195,7 +3134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -4217,7 +3156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -4237,7 +3176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -4257,7 +3196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
@@ -4277,7 +3216,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
@@ -4297,7 +3236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -4317,7 +3256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -4337,7 +3276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>119</v>
       </c>
@@ -4357,7 +3296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
@@ -4377,7 +3316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
@@ -4397,7 +3336,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>126</v>
       </c>
@@ -4417,7 +3356,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
@@ -4437,7 +3376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>130</v>
       </c>
@@ -4457,7 +3396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>132</v>
       </c>
@@ -4477,7 +3416,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -4497,7 +3436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -4519,7 +3458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -4539,7 +3478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -4559,7 +3498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -4579,7 +3518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -4599,7 +3538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
@@ -4619,7 +3558,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -4640,39 +3579,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="78.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="75.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4686,19 +3621,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -4712,19 +3638,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>139</v>
       </c>
@@ -4737,16 +3654,11 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -4759,16 +3671,11 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>143</v>
       </c>
@@ -4781,14 +3688,11 @@
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>145</v>
       </c>
@@ -4801,14 +3705,11 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>147</v>
       </c>
@@ -4821,14 +3722,11 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>149</v>
       </c>
@@ -4841,14 +3739,11 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -4861,14 +3756,11 @@
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>152</v>
       </c>
@@ -4881,14 +3773,11 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>154</v>
       </c>
@@ -4901,14 +3790,11 @@
       <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>156</v>
       </c>
@@ -4921,14 +3807,11 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>158</v>
       </c>
@@ -4941,14 +3824,11 @@
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>160</v>
       </c>
@@ -4961,14 +3841,11 @@
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:8">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>162</v>
       </c>
@@ -4981,14 +3858,11 @@
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -5001,14 +3875,11 @@
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:8">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>166</v>
       </c>
@@ -5021,14 +3892,11 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:8">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>169</v>
       </c>
@@ -5041,14 +3909,11 @@
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:8">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>172</v>
       </c>
@@ -5061,14 +3926,11 @@
       <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:8">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>174</v>
       </c>
@@ -5081,14 +3943,11 @@
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:8">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>176</v>
       </c>
@@ -5101,14 +3960,11 @@
       <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:8">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>178</v>
       </c>
@@ -5121,14 +3977,11 @@
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:8">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>180</v>
       </c>
@@ -5141,14 +3994,11 @@
       <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:8">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>183</v>
       </c>
@@ -5161,14 +4011,11 @@
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:8">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -5181,16 +4028,11 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:8">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -5203,14 +4045,11 @@
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:8">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -5223,14 +4062,11 @@
       <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:8">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -5243,14 +4079,11 @@
       <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:8">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -5263,14 +4096,11 @@
       <c r="D32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:8">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -5283,14 +4113,11 @@
       <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:8">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -5303,30 +4130,26 @@
       <c r="D34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -5338,12 +4161,12 @@
     <col min="8" max="8" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +4192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -5395,7 +4218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>187</v>
       </c>
@@ -5417,7 +4240,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -5439,7 +4262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>141</v>
       </c>
@@ -5461,7 +4284,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
@@ -5481,7 +4304,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -5501,7 +4324,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>189</v>
       </c>
@@ -5521,7 +4344,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>191</v>
       </c>
@@ -5541,7 +4364,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>193</v>
       </c>
@@ -5561,7 +4384,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>195</v>
       </c>
@@ -5581,7 +4404,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5603,7 +4426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -5623,7 +4446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -5643,7 +4466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -5663,7 +4486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -5683,7 +4506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -5703,7 +4526,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -5724,8 +4547,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>